--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/31.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/31.xlsx
@@ -479,13 +479,13 @@
         <v>-13.34458287255866</v>
       </c>
       <c r="E2" t="n">
-        <v>-15.47191260296959</v>
+        <v>-11.99080771054074</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.306616553928157</v>
+        <v>4.023852966048611</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.42219665589106</v>
+        <v>-16.42390490910213</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.37755428892693</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.8376592066835</v>
+        <v>-12.70441204184251</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.080800569317873</v>
+        <v>3.496866915863848</v>
       </c>
       <c r="G3" t="n">
-        <v>-11.57414698931478</v>
+        <v>-16.50949675232122</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.36874456353052</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.57472588193959</v>
+        <v>-13.49501334229133</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.691593975215291</v>
+        <v>3.00521371830628</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.79687312158517</v>
+        <v>-15.57340349651988</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.27321584540769</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.97848940305063</v>
+        <v>-13.97893213098544</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.636160061792559</v>
+        <v>3.582620096309536</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.71051859329485</v>
+        <v>-14.95349698182253</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.08117590408669</v>
       </c>
       <c r="E6" t="n">
-        <v>-17.76730132698616</v>
+        <v>-14.72545903452902</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.442472276745989</v>
+        <v>3.754517577750266</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.32448261108325</v>
+        <v>-14.30957077638803</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.75896399934252</v>
       </c>
       <c r="E7" t="n">
-        <v>-18.56271829919888</v>
+        <v>-15.52207381342414</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.773255056913372</v>
+        <v>2.980362896401751</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.38059627833605</v>
+        <v>-13.25911387195582</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.3046177761934</v>
       </c>
       <c r="E8" t="n">
-        <v>-19.81588320634712</v>
+        <v>-16.63435709869535</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.365374992020391</v>
+        <v>3.154343094767787</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.25118662013446</v>
+        <v>-12.97560036374342</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.70372990054581</v>
       </c>
       <c r="E9" t="n">
-        <v>-19.47096377188628</v>
+        <v>-16.61161832775733</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.096787621772684</v>
+        <v>3.508189855767623</v>
       </c>
       <c r="G9" t="n">
-        <v>-10.0497986492725</v>
+        <v>-12.72024264607758</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.98333247643507</v>
       </c>
       <c r="E10" t="n">
-        <v>-20.52205624721119</v>
+        <v>-17.41924803912362</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.640222826498965</v>
+        <v>3.901202450778315</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.853759251922945</v>
+        <v>-12.13641700205807</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.16589484202056</v>
       </c>
       <c r="E11" t="n">
-        <v>-21.24633328050344</v>
+        <v>-18.08398674679057</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.103862014709111</v>
+        <v>3.247664457843459</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.97790091428765</v>
+        <v>-11.58553837531469</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.315477326354795</v>
       </c>
       <c r="E12" t="n">
-        <v>-22.06771576818635</v>
+        <v>-19.08815453420683</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.684067440081459</v>
+        <v>3.721624339549662</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.84291054568526</v>
+        <v>-11.29428556923197</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.48395917541318</v>
       </c>
       <c r="E13" t="n">
-        <v>-22.51576880250477</v>
+        <v>-19.66451466474057</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.423424705992489</v>
+        <v>3.846044675305781</v>
       </c>
       <c r="G13" t="n">
-        <v>-9.857127777654249</v>
+        <v>-11.23663928926417</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.749638396558938</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.96124533020432</v>
+        <v>-20.41023977115798</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.946770981502616</v>
+        <v>4.314284418977693</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.103751375490123</v>
+        <v>-10.59549492873695</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.165209118581634</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.86072734902055</v>
+        <v>-20.35266682629318</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5625585988523709</v>
+        <v>4.513071438186454</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.9194993736967</v>
+        <v>-10.44641444234411</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.78755850048323</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.78197269096707</v>
+        <v>-21.3984840632087</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4940098335713564</v>
+        <v>4.54014675821543</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.216868327369935</v>
+        <v>-10.76368654297255</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.640233301452597</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.95069467150995</v>
+        <v>-22.80644959478406</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1884173009400997</v>
+        <v>4.998153810514889</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.83843963984325</v>
+        <v>-10.37289844608631</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.733880102678973</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.01215437683394</v>
+        <v>-22.81530847522691</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3953640726097425</v>
+        <v>5.219459595352661</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.743788466899776</v>
+        <v>-10.41327675380016</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.049817316737378</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.92053185270674</v>
+        <v>-23.6374780930154</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1195898622676711</v>
+        <v>5.049996839331655</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.368554836298404</v>
+        <v>-9.013612755884813</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.55425123783739</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.01171173983692</v>
+        <v>-24.67387421369837</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2872192407135839</v>
+        <v>5.134131758504394</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.693862110650407</v>
+        <v>-8.412577807693756</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.199522841137078</v>
       </c>
       <c r="E21" t="n">
-        <v>-28.10323630195122</v>
+        <v>-25.622336656873</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7524326891348758</v>
+        <v>5.260688590261354</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.888850371523576</v>
+        <v>-8.508050333790871</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-8.925314409087971</v>
       </c>
       <c r="E22" t="n">
-        <v>-28.90934064317502</v>
+        <v>-26.39990875402149</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3685234249103795</v>
+        <v>5.1585425697909</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.474643931744808</v>
+        <v>-7.772699699945061</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.67024806190593</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.90247892203731</v>
+        <v>-26.6318921298566</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8901413455552691</v>
+        <v>5.389421030074092</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.962452016339331</v>
+        <v>-7.282923881024389</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.36396683127156</v>
       </c>
       <c r="E24" t="n">
-        <v>-29.70732189948945</v>
+        <v>-27.52076002382697</v>
       </c>
       <c r="F24" t="n">
-        <v>1.698157288464036</v>
+        <v>5.969897704389771</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.67482196434499</v>
+        <v>-6.937975112522338</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.95119345889517</v>
       </c>
       <c r="E25" t="n">
-        <v>-30.18804572219603</v>
+        <v>-27.70262130126248</v>
       </c>
       <c r="F25" t="n">
-        <v>1.706527268220195</v>
+        <v>5.885889899395571</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.912158802699376</v>
+        <v>-6.75862678461643</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.37645976629687</v>
       </c>
       <c r="E26" t="n">
-        <v>-30.65590901233919</v>
+        <v>-28.06132773508802</v>
       </c>
       <c r="F26" t="n">
-        <v>1.36196473126063</v>
+        <v>5.71028655074972</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.258581697709586</v>
+        <v>-6.108242201110734</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.61113484900012</v>
       </c>
       <c r="E27" t="n">
-        <v>-30.77001354360612</v>
+        <v>-28.31198956165819</v>
       </c>
       <c r="F27" t="n">
-        <v>1.954165244043171</v>
+        <v>6.030188937072566</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.762574748599246</v>
+        <v>-6.031093672750816</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.63148046265293</v>
       </c>
       <c r="E28" t="n">
-        <v>-30.60857609235715</v>
+        <v>-28.30620586653463</v>
       </c>
       <c r="F28" t="n">
-        <v>1.536252937059281</v>
+        <v>5.88547922281875</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.60333725950261</v>
+        <v>-6.237307093390422</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.44438815005491</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.28771790519182</v>
+        <v>-28.3161989965706</v>
       </c>
       <c r="F29" t="n">
-        <v>1.324182486193111</v>
+        <v>5.600763018917092</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.459453787409303</v>
+        <v>-6.067462994833797</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.06191409351375</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.3252630334263</v>
+        <v>-28.3247914261392</v>
       </c>
       <c r="F30" t="n">
-        <v>2.279362424802886</v>
+        <v>6.349969098223739</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.852451715399394</v>
+        <v>-6.40792365503202</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.52366380016382</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.01951921099004</v>
+        <v>-27.95318779219873</v>
       </c>
       <c r="F31" t="n">
-        <v>2.064999029716132</v>
+        <v>6.262470542326562</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.696687956619484</v>
+        <v>-6.142890592776561</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.866846213596473</v>
       </c>
       <c r="E32" t="n">
-        <v>-29.75148429851829</v>
+        <v>-27.92173681102387</v>
       </c>
       <c r="F32" t="n">
-        <v>1.363397210272636</v>
+        <v>5.687361997550756</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.324668757095325</v>
+        <v>-5.918196726180017</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.148278027959696</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.94647265032924</v>
+        <v>-27.24998971201319</v>
       </c>
       <c r="F33" t="n">
-        <v>1.772211075477197</v>
+        <v>6.003607406737149</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.47226298540062</v>
+        <v>-6.036515581366225</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.411096976365222</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.66788237203183</v>
+        <v>-27.00828210151978</v>
       </c>
       <c r="F34" t="n">
-        <v>1.166399567577165</v>
+        <v>5.316667718887531</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.643322093101457</v>
+        <v>-5.481031510154216</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.709458228596776</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.66091798174991</v>
+        <v>-26.76592180860964</v>
       </c>
       <c r="F35" t="n">
-        <v>1.972049231162346</v>
+        <v>6.100448854757</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.919829654473566</v>
+        <v>-5.768661562148556</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.072359243464883</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.63232960503341</v>
+        <v>-26.14007759507242</v>
       </c>
       <c r="F36" t="n">
-        <v>1.447170342937224</v>
+        <v>5.698772939578135</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.208523156399243</v>
+        <v>-5.315157285173525</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.537440646104543</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.02426915397459</v>
+        <v>-25.28448183733484</v>
       </c>
       <c r="F37" t="n">
-        <v>1.482517862585019</v>
+        <v>5.578860268153313</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.90395758461791</v>
+        <v>-5.087525125449965</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.112452376469033</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.06207349051079</v>
+        <v>-24.51181830308073</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5382501873021988</v>
+        <v>5.012356375463277</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.46359006909428</v>
+        <v>-4.836244839511138</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.814175004080221</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.05289682462159</v>
+        <v>-24.15637772584228</v>
       </c>
       <c r="F39" t="n">
-        <v>0.419481543484234</v>
+        <v>4.883804828904615</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.212722813297923</v>
+        <v>-5.235930928895169</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.630442644795238</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.39416670639408</v>
+        <v>-23.7084371386818</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5989863196098832</v>
+        <v>5.013475958035801</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.91126176087708</v>
+        <v>-5.298583551894684</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.563509002244283</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.7002015156767</v>
+        <v>-23.13193522694893</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8322310592166615</v>
+        <v>5.292965813596727</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.87153369107653</v>
+        <v>-5.468065863943157</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.590788609245385</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.65639112514227</v>
+        <v>-22.88290877317575</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8163515649129218</v>
+        <v>5.105100835728654</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.230626356444565</v>
+        <v>-5.737176357925623</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.705346584190027</v>
       </c>
       <c r="E43" t="n">
-        <v>-24.01978865199441</v>
+        <v>-22.53252831804455</v>
       </c>
       <c r="F43" t="n">
-        <v>0.07321763213498277</v>
+        <v>4.447827641547475</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.606908769956674</v>
+        <v>-6.099916222416378</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.877844635271376</v>
       </c>
       <c r="E44" t="n">
-        <v>-23.69479192051624</v>
+        <v>-22.00417823494392</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5938284173652879</v>
+        <v>4.864185244347685</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.440887874769976</v>
+        <v>-6.211106905590625</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.093980721908106</v>
       </c>
       <c r="E45" t="n">
-        <v>-23.4398497684341</v>
+        <v>-21.67526540896535</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1338022052297928</v>
+        <v>4.791651938470135</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.440213191822343</v>
+        <v>-6.478516025183405</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.324080455412041</v>
       </c>
       <c r="E46" t="n">
-        <v>-22.6871040481558</v>
+        <v>-21.15771025302687</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5729572470504281</v>
+        <v>4.835520997086963</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.156020111655444</v>
+        <v>-6.555121873781095</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.554626073771415</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.05882012925421</v>
+        <v>-21.45631612543743</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3173941910961829</v>
+        <v>5.022535287760194</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.558556492042886</v>
+        <v>-7.0796634205324</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.764326627029398</v>
       </c>
       <c r="E48" t="n">
-        <v>-21.85710224136652</v>
+        <v>-20.71704450808436</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4470799872479689</v>
+        <v>5.062938040508379</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.951556955474193</v>
+        <v>-6.872452642491943</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.946982482772243</v>
       </c>
       <c r="E49" t="n">
-        <v>-21.62180411887564</v>
+        <v>-20.35046677320307</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5568039683621411</v>
+        <v>5.211764298544137</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.495896626470853</v>
+        <v>-6.660885759333066</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.094671956645302</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.92303538797373</v>
+        <v>-20.53768640216471</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5536310029055133</v>
+        <v>5.126920473375694</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.198647362528075</v>
+        <v>-7.39585016163639</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.209522799913541</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.24019757688546</v>
+        <v>-19.86167364466265</v>
       </c>
       <c r="F51" t="n">
-        <v>1.283070827449224</v>
+        <v>5.584736854407344</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.503692056982366</v>
+        <v>-7.441498818752775</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.294365609919027</v>
       </c>
       <c r="E52" t="n">
-        <v>-20.6392066297562</v>
+        <v>-19.20265996403685</v>
       </c>
       <c r="F52" t="n">
-        <v>1.405863123918659</v>
+        <v>5.71876408865695</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.199102040166698</v>
+        <v>-7.460042821798983</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.354986727323782</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.36174082303818</v>
+        <v>-19.07208925764215</v>
       </c>
       <c r="F53" t="n">
-        <v>1.265807744202147</v>
+        <v>5.832687726669803</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.919956768652106</v>
+        <v>-8.101998757466118</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.39889079876512</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.4793973087317</v>
+        <v>-18.22187629646504</v>
       </c>
       <c r="F54" t="n">
-        <v>1.867820493766586</v>
+        <v>6.218557482647932</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.909413716281387</v>
+        <v>-7.653701272804351</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.431134399959313</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.43693628409255</v>
+        <v>-17.86466589874077</v>
       </c>
       <c r="F55" t="n">
-        <v>1.826669722967763</v>
+        <v>6.267002651692192</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.247828236168023</v>
+        <v>-8.840810808173703</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.460845297320073</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.48279027949734</v>
+        <v>-17.98231007097934</v>
       </c>
       <c r="F56" t="n">
-        <v>1.223967623435089</v>
+        <v>5.803911032251142</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.729192609711951</v>
+        <v>-8.642913588214721</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.490563127634655</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.39376635345769</v>
+        <v>-17.68882298875844</v>
       </c>
       <c r="F57" t="n">
-        <v>1.744661521782131</v>
+        <v>6.160128961581432</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.003074774396526</v>
+        <v>-9.172608148203754</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.530639210631721</v>
       </c>
       <c r="E58" t="n">
-        <v>-18.46088028616105</v>
+        <v>-16.90504185288897</v>
       </c>
       <c r="F58" t="n">
-        <v>1.533221752801794</v>
+        <v>6.05290815198312</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.403044426178838</v>
+        <v>-9.652234388868711</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.579641272698984</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.76427014272867</v>
+        <v>-16.51229815325595</v>
       </c>
       <c r="F59" t="n">
-        <v>1.550910179646292</v>
+        <v>6.07666383634946</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.193105582306644</v>
+        <v>-9.496191956697386</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.646131449851986</v>
       </c>
       <c r="E60" t="n">
-        <v>-16.98057211997594</v>
+        <v>-15.58099612418419</v>
       </c>
       <c r="F60" t="n">
-        <v>1.100852652512436</v>
+        <v>5.790906273985148</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.358520240641844</v>
+        <v>-9.589967997411682</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.722629904200353</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.670701975744</v>
+        <v>-15.28127066920111</v>
       </c>
       <c r="F61" t="n">
-        <v>1.090957302613801</v>
+        <v>5.751271095315068</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.212353602341688</v>
+        <v>-9.487748641838225</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.814353154995832</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.02448282608892</v>
+        <v>-14.7874369745809</v>
       </c>
       <c r="F62" t="n">
-        <v>0.825997575461345</v>
+        <v>5.465806873362771</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.425286871982085</v>
+        <v>-10.52539145927225</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.909619366272875</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.39773170177789</v>
+        <v>-14.4167524739314</v>
       </c>
       <c r="F63" t="n">
-        <v>1.050129206268194</v>
+        <v>5.557984208831586</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.24981552652164</v>
+        <v>-10.27849661249305</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.010625231469543</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.83741964534702</v>
+        <v>-14.73733932121562</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9002567007629162</v>
+        <v>5.248221622750721</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.62874289274875</v>
+        <v>-10.6281583836148</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.102399868578223</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.37127728562101</v>
+        <v>-14.41359906450224</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7144108827308783</v>
+        <v>5.223893924580953</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.010740555288283</v>
+        <v>-11.06543604679855</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.184589605068638</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.37606851235059</v>
+        <v>-14.40975141609798</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4173646035108598</v>
+        <v>5.072065816328909</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.308769524888552</v>
+        <v>-11.42463627031765</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.240869891972231</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.27488073722605</v>
+        <v>-14.34034218560839</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4674478592634075</v>
+        <v>4.385131017486158</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.381557059123182</v>
+        <v>-11.38854073261922</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.270769823177925</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.62561320085166</v>
+        <v>-14.65625514232783</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.162070712342166</v>
+        <v>4.579107253937875</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.634348048183886</v>
+        <v>-11.48382258744853</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.259946293309413</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.08057440187303</v>
+        <v>-15.23508911033623</v>
       </c>
       <c r="F69" t="n">
-        <v>0.05261535719780318</v>
+        <v>4.888028930837629</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.003162594644564</v>
+        <v>-11.17086747988357</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.212145018200186</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.51744881292803</v>
+        <v>-14.73290988099419</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.08961074156761957</v>
+        <v>4.699059037417633</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.594612735810817</v>
+        <v>-11.08784236526962</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.118941107583467</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.50509918158221</v>
+        <v>-14.96956714739408</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5374486595838958</v>
+        <v>4.362817590145558</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.370566571686357</v>
+        <v>-11.55714302343165</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.990417024223196</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.90205231612763</v>
+        <v>-15.16074198291105</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.3962785863017266</v>
+        <v>4.371974700007289</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.632680896842267</v>
+        <v>-11.776810990969</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.824306243095719</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.31602897258366</v>
+        <v>-15.3972281340706</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4029569696819325</v>
+        <v>4.465965857023729</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.920922074694973</v>
+        <v>-12.28161072799171</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.636302143477465</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.72094629931529</v>
+        <v>-16.01056871254568</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3791523952469236</v>
+        <v>4.518522680843065</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.872481794657579</v>
+        <v>-12.21013833660428</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.428506759528393</v>
       </c>
       <c r="E75" t="n">
-        <v>-17.06854490953921</v>
+        <v>-16.37570419040122</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.5747126699235214</v>
+        <v>4.424595080915894</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.087387869506559</v>
+        <v>-12.35411958883492</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.219263163750472</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.8066799237335</v>
+        <v>-16.33654324539723</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.7292981780485052</v>
+        <v>4.247471251134433</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.361226033129332</v>
+        <v>-12.61016176746213</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.010957851274216</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.94467703155905</v>
+        <v>-16.58560881122535</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.8549163204870179</v>
+        <v>4.302995702121986</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.771259796484971</v>
+        <v>-11.98414399418113</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.819978902276712</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.75403256234935</v>
+        <v>-17.44323839581957</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.167969208189316</v>
+        <v>4.032530953237385</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.52085953178219</v>
+        <v>-11.86516512306789</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.645850501365977</v>
       </c>
       <c r="E79" t="n">
-        <v>-18.23915404673272</v>
+        <v>-17.81167395331028</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.6341287703771389</v>
+        <v>4.501665385165942</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.737613651226862</v>
+        <v>-11.93903801682698</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.500843123276423</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.53230867648667</v>
+        <v>-18.3090815119502</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.009022705939044</v>
+        <v>4.162441643705049</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.515926523853471</v>
+        <v>-11.78511741363589</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.38087952525534</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.43130903718873</v>
+        <v>-19.40212655520011</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.8917207641811536</v>
+        <v>4.342630880792066</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.15495647984854</v>
+        <v>-11.29623628297187</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.29354026841132</v>
       </c>
       <c r="E82" t="n">
-        <v>-20.07283962925844</v>
+        <v>-20.23286171301943</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.034117978186918</v>
+        <v>4.218010095754404</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.401279312824316</v>
+        <v>-11.26633022796695</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.234443274358982</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.95464535280955</v>
+        <v>-21.11355763201176</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.8665766018646101</v>
+        <v>4.452623757283918</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.704537166206533</v>
+        <v>-10.80990721389237</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.207279502627411</v>
       </c>
       <c r="E84" t="n">
-        <v>-22.51231716365672</v>
+        <v>-22.57035456417387</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.649340824305762</v>
+        <v>4.085014441953716</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.53467351162244</v>
+        <v>-10.49137863849912</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.208578219456328</v>
       </c>
       <c r="E85" t="n">
-        <v>-23.5796558088004</v>
+        <v>-23.79493344817126</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.247958249538911</v>
+        <v>4.502652964553059</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.649159385424987</v>
+        <v>-10.44325125490121</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.238990960302512</v>
       </c>
       <c r="E86" t="n">
-        <v>-25.20212162765479</v>
+        <v>-25.32203429907961</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.267509387999704</v>
+        <v>4.502139618832032</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.599347829899208</v>
+        <v>-9.45780347477837</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.29750664872045</v>
       </c>
       <c r="E87" t="n">
-        <v>-25.93358061203454</v>
+        <v>-26.15177698850495</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9131883933337772</v>
+        <v>4.743661447064498</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.72967408595056</v>
+        <v>-9.476635929229726</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.383223173433124</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.61578774123698</v>
+        <v>-27.02016238820638</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.5778074112702787</v>
+        <v>5.131002794109569</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.12777613710971</v>
+        <v>-9.316183612864444</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.498861291373922</v>
       </c>
       <c r="E89" t="n">
-        <v>-28.15166924847831</v>
+        <v>-28.60048252336454</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.464379916516635</v>
+        <v>4.600149539493077</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.890290274983665</v>
+        <v>-8.400731744055221</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.641988097483169</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.06684244389612</v>
+        <v>-30.04752344232372</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.427145240218211</v>
+        <v>4.614562331736742</v>
       </c>
       <c r="G90" t="n">
-        <v>-6.569559111059095</v>
+        <v>-8.945768007592633</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.819398077012544</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.93928807286274</v>
+        <v>-31.92982286463062</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.244012820997311</v>
+        <v>4.795015575194573</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.221569380285823</v>
+        <v>-8.277621662139437</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.027124164459954</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.27566632138931</v>
+        <v>-33.48394770099584</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.051395728454596</v>
+        <v>5.151590402026147</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.889217047038595</v>
+        <v>-8.858122781489449</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.274859535072192</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.55850016670942</v>
+        <v>-35.07117844736037</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9074878113269543</v>
+        <v>5.137153164748148</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.084611095481717</v>
+        <v>-8.595563556708649</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.555563271343466</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.94382226298067</v>
+        <v>-36.87649312303739</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.670065324414614</v>
+        <v>4.578569463182514</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.218616420138206</v>
+        <v>-7.812090428271795</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.878528169121891</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.86136400034994</v>
+        <v>-39.55052320637935</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.750430819292962</v>
+        <v>4.632847217419004</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.52752343001736</v>
+        <v>-7.594808296085494</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.237520410026049</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.74499323252463</v>
+        <v>-41.3020881405615</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.648113683582166</v>
+        <v>4.523543690895386</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.301450863484346</v>
+        <v>-7.132762924113963</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.634512175131764</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.72944600881227</v>
+        <v>-43.36753709361333</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.248811290299405</v>
+        <v>4.35813881057392</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.114915695484073</v>
+        <v>-7.026529693902768</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.065360148924778</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.35282362744735</v>
+        <v>-45.01345058940145</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.27392122956788</v>
+        <v>4.358901495645159</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.866583480685995</v>
+        <v>-6.702950774416002</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.51612928855636</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.65509118412567</v>
+        <v>-47.54625682038571</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.725330658038221</v>
+        <v>4.694908270587622</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.305826524630235</v>
+        <v>-7.104616911581133</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.992169246162792</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.50538716748173</v>
+        <v>-49.57359840941336</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.047359762348175</v>
+        <v>4.153577874255332</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.894575398564734</v>
+        <v>-7.389787793121416</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.44980756225899</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.64362854377505</v>
+        <v>-51.35450227380387</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.5588550852129</v>
+        <v>4.641036303921086</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.900711102182712</v>
+        <v>-7.374147860154155</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.93386188935439</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.43482621212385</v>
+        <v>-52.93429684072383</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.946333324450244</v>
+        <v>4.284236582773634</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.309617858517744</v>
+        <v>-7.681627280028169</v>
       </c>
     </row>
   </sheetData>
